--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H2">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1220006666666667</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N2">
-        <v>0.366002</v>
+        <v>0.227388</v>
       </c>
       <c r="O2">
-        <v>0.003000890193633104</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P2">
-        <v>0.003000890193633103</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q2">
-        <v>0.1729798245731111</v>
+        <v>0.2349344518826667</v>
       </c>
       <c r="R2">
-        <v>1.556818421158</v>
+        <v>2.114410066944</v>
       </c>
       <c r="S2">
-        <v>0.0004419264164856756</v>
+        <v>0.0004782314557535506</v>
       </c>
       <c r="T2">
-        <v>0.0004419264164856755</v>
+        <v>0.0004782314557535506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H3">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>120.382021</v>
       </c>
       <c r="O3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P3">
-        <v>0.987025279393649</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q3">
-        <v>56.89493738923989</v>
+        <v>124.3772060098275</v>
       </c>
       <c r="R3">
-        <v>512.054436503159</v>
+        <v>1119.394854088448</v>
       </c>
       <c r="S3">
-        <v>0.1453543837187593</v>
+        <v>0.253181650524146</v>
       </c>
       <c r="T3">
-        <v>0.1453543837187593</v>
+        <v>0.2531816505241459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H4">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4054843333333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N4">
-        <v>1.216453</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O4">
-        <v>0.009973830412717882</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P4">
-        <v>0.00997383041271788</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q4">
-        <v>0.5749198816985556</v>
+        <v>7.265600125553778</v>
       </c>
       <c r="R4">
-        <v>5.174278935287</v>
+        <v>65.390401129984</v>
       </c>
       <c r="S4">
-        <v>0.00146879720633562</v>
+        <v>0.0147898211485053</v>
       </c>
       <c r="T4">
-        <v>0.00146879720633562</v>
+        <v>0.0147898211485053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.189892666666668</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H5">
-        <v>18.569678</v>
+        <v>9.298688</v>
       </c>
       <c r="I5">
-        <v>0.6429093297593833</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J5">
-        <v>0.6429093297593833</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1220006666666667</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N5">
-        <v>0.366002</v>
+        <v>0.09002</v>
       </c>
       <c r="O5">
-        <v>0.003000890193633104</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P5">
-        <v>0.003000890193633103</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q5">
-        <v>0.7551710319284446</v>
+        <v>0.09300754375111112</v>
       </c>
       <c r="R5">
-        <v>6.796539287356001</v>
+        <v>0.83706789376</v>
       </c>
       <c r="S5">
-        <v>0.001929300303070165</v>
+        <v>0.0001893257148439435</v>
       </c>
       <c r="T5">
-        <v>0.001929300303070165</v>
+        <v>0.0001893257148439435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
         <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>40.12734033333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N6">
-        <v>120.382021</v>
+        <v>0.227388</v>
       </c>
       <c r="O6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P6">
-        <v>0.987025279393649</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q6">
-        <v>248.3839296621376</v>
+        <v>0.4691691045626666</v>
       </c>
       <c r="R6">
-        <v>2235.455366959238</v>
+        <v>4.222521941064</v>
       </c>
       <c r="S6">
-        <v>0.6345677608305389</v>
+        <v>0.0009550384035699102</v>
       </c>
       <c r="T6">
-        <v>0.6345677608305389</v>
+        <v>0.0009550384035699104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
         <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4054843333333333</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N7">
-        <v>1.216453</v>
+        <v>120.382021</v>
       </c>
       <c r="O7">
-        <v>0.009973830412717882</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P7">
-        <v>0.00997383041271788</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q7">
-        <v>2.509904501348223</v>
+        <v>248.3839296621375</v>
       </c>
       <c r="R7">
-        <v>22.589140512134</v>
+        <v>2235.455366959238</v>
       </c>
       <c r="S7">
-        <v>0.006412268625774207</v>
+        <v>0.5056091489188498</v>
       </c>
       <c r="T7">
-        <v>0.006412268625774206</v>
+        <v>0.5056091489188498</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.008073333333333</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
-        <v>3.02422</v>
+        <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.1047029061702051</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J8">
-        <v>0.1047029061702051</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1220006666666667</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N8">
-        <v>0.366002</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O8">
-        <v>0.003000890193633104</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P8">
-        <v>0.003000890193633103</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q8">
-        <v>0.1229856187155556</v>
+        <v>14.50955820953378</v>
       </c>
       <c r="R8">
-        <v>1.10687056844</v>
+        <v>130.586023885804</v>
       </c>
       <c r="S8">
-        <v>0.0003142019243710555</v>
+        <v>0.02953558785985007</v>
       </c>
       <c r="T8">
-        <v>0.0003142019243710555</v>
+        <v>0.02953558785985007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.008073333333333</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
-        <v>3.02422</v>
+        <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.1047029061702051</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J9">
-        <v>0.1047029061702051</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>40.12734033333333</v>
+        <v>0.03000666666666667</v>
       </c>
       <c r="N9">
-        <v>120.382021</v>
+        <v>0.09002</v>
       </c>
       <c r="O9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930054</v>
       </c>
       <c r="P9">
-        <v>0.987025279393649</v>
+        <v>0.0007047587822930053</v>
       </c>
       <c r="Q9">
-        <v>40.45130172762444</v>
+        <v>0.1857380459511111</v>
       </c>
       <c r="R9">
-        <v>364.06171554862</v>
+        <v>1.67164241356</v>
       </c>
       <c r="S9">
-        <v>0.1033444152159737</v>
+        <v>0.0003780874852206948</v>
       </c>
       <c r="T9">
-        <v>0.1033444152159737</v>
+        <v>0.0003780874852206948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H10">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4054843333333333</v>
+        <v>0.07579599999999999</v>
       </c>
       <c r="N10">
-        <v>1.216453</v>
+        <v>0.227388</v>
       </c>
       <c r="O10">
-        <v>0.009973830412717882</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="P10">
-        <v>0.00997383041271788</v>
+        <v>0.001780200955210419</v>
       </c>
       <c r="Q10">
-        <v>0.4087579435177778</v>
+        <v>0.143147112864</v>
       </c>
       <c r="R10">
-        <v>3.67882149166</v>
+        <v>1.288324015776</v>
       </c>
       <c r="S10">
-        <v>0.001044289029860338</v>
+        <v>0.0002913895838744768</v>
       </c>
       <c r="T10">
-        <v>0.001044289029860338</v>
+        <v>0.0002913895838744768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.012114666666667</v>
+        <v>1.888584</v>
       </c>
       <c r="H11">
-        <v>3.036344</v>
+        <v>5.665752</v>
       </c>
       <c r="I11">
-        <v>0.105122656728831</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J11">
-        <v>0.105122656728831</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1220006666666667</v>
+        <v>40.12734033333333</v>
       </c>
       <c r="N11">
-        <v>0.366002</v>
+        <v>120.382021</v>
       </c>
       <c r="O11">
-        <v>0.003000890193633104</v>
+        <v>0.9424604146848589</v>
       </c>
       <c r="P11">
-        <v>0.003000890193633103</v>
+        <v>0.9424604146848587</v>
       </c>
       <c r="Q11">
-        <v>0.1234786640764444</v>
+        <v>75.78385291608799</v>
       </c>
       <c r="R11">
-        <v>1.111307976688</v>
+        <v>682.0546762447921</v>
       </c>
       <c r="S11">
-        <v>0.000315461549706208</v>
+        <v>0.1542652514871433</v>
       </c>
       <c r="T11">
-        <v>0.0003154615497062079</v>
+        <v>0.1542652514871433</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.012114666666667</v>
+        <v>1.888584</v>
       </c>
       <c r="H12">
-        <v>3.036344</v>
+        <v>5.665752</v>
       </c>
       <c r="I12">
-        <v>0.105122656728831</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J12">
-        <v>0.105122656728831</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.12734033333333</v>
+        <v>2.344072666666666</v>
       </c>
       <c r="N12">
-        <v>120.382021</v>
+        <v>7.032217999999999</v>
       </c>
       <c r="O12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="P12">
-        <v>0.987025279393649</v>
+        <v>0.05505462557763778</v>
       </c>
       <c r="Q12">
-        <v>40.61346968569156</v>
+        <v>4.426978133104</v>
       </c>
       <c r="R12">
-        <v>365.521227171224</v>
+        <v>39.842803197936</v>
       </c>
       <c r="S12">
-        <v>0.1037587196283771</v>
+        <v>0.009011535686731954</v>
       </c>
       <c r="T12">
-        <v>0.1037587196283771</v>
+        <v>0.009011535686731955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.888584</v>
+      </c>
+      <c r="H13">
+        <v>5.665752</v>
+      </c>
+      <c r="I13">
+        <v>0.1636835341659699</v>
+      </c>
+      <c r="J13">
+        <v>0.1636835341659699</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.03000666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09002</v>
+      </c>
+      <c r="O13">
+        <v>0.0007047587822930054</v>
+      </c>
+      <c r="P13">
+        <v>0.0007047587822930053</v>
+      </c>
+      <c r="Q13">
+        <v>0.05667011056</v>
+      </c>
+      <c r="R13">
+        <v>0.51003099504</v>
+      </c>
+      <c r="S13">
+        <v>0.0001153574082202245</v>
+      </c>
+      <c r="T13">
+        <v>0.0001153574082202245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3599813333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.079944</v>
+      </c>
+      <c r="I14">
+        <v>0.03119957432329092</v>
+      </c>
+      <c r="J14">
+        <v>0.03119957432329093</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07579599999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.227388</v>
+      </c>
+      <c r="O14">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="P14">
+        <v>0.001780200955210419</v>
+      </c>
+      <c r="Q14">
+        <v>0.02728514514133333</v>
+      </c>
+      <c r="R14">
+        <v>0.245566306272</v>
+      </c>
+      <c r="S14">
+        <v>5.554151201248095E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.554151201248096E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3599813333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.079944</v>
+      </c>
+      <c r="I15">
+        <v>0.03119957432329092</v>
+      </c>
+      <c r="J15">
+        <v>0.03119957432329093</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.12734033333333</v>
+      </c>
+      <c r="N15">
+        <v>120.382021</v>
+      </c>
+      <c r="O15">
+        <v>0.9424604146848589</v>
+      </c>
+      <c r="P15">
+        <v>0.9424604146848587</v>
+      </c>
+      <c r="Q15">
+        <v>14.44509347631378</v>
+      </c>
+      <c r="R15">
+        <v>130.005841286824</v>
+      </c>
+      <c r="S15">
+        <v>0.02940436375471984</v>
+      </c>
+      <c r="T15">
+        <v>0.02940436375471984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.012114666666667</v>
-      </c>
-      <c r="H13">
-        <v>3.036344</v>
-      </c>
-      <c r="I13">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="J13">
-        <v>0.105122656728831</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4054843333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.216453</v>
-      </c>
-      <c r="O13">
-        <v>0.009973830412717882</v>
-      </c>
-      <c r="P13">
-        <v>0.00997383041271788</v>
-      </c>
-      <c r="Q13">
-        <v>0.4103966408702223</v>
-      </c>
-      <c r="R13">
-        <v>3.693569767832</v>
-      </c>
-      <c r="S13">
-        <v>0.001048475550747717</v>
-      </c>
-      <c r="T13">
-        <v>0.001048475550747716</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3599813333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.079944</v>
+      </c>
+      <c r="I16">
+        <v>0.03119957432329092</v>
+      </c>
+      <c r="J16">
+        <v>0.03119957432329093</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.344072666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.032217999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="P16">
+        <v>0.05505462557763778</v>
+      </c>
+      <c r="Q16">
+        <v>0.8438224039768888</v>
+      </c>
+      <c r="R16">
+        <v>7.594401635792</v>
+      </c>
+      <c r="S16">
+        <v>0.001717680882550463</v>
+      </c>
+      <c r="T16">
+        <v>0.001717680882550464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3599813333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.079944</v>
+      </c>
+      <c r="I17">
+        <v>0.03119957432329092</v>
+      </c>
+      <c r="J17">
+        <v>0.03119957432329093</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.03000666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09002</v>
+      </c>
+      <c r="O17">
+        <v>0.0007047587822930054</v>
+      </c>
+      <c r="P17">
+        <v>0.0007047587822930053</v>
+      </c>
+      <c r="Q17">
+        <v>0.01080183987555556</v>
+      </c>
+      <c r="R17">
+        <v>0.09721655888</v>
+      </c>
+      <c r="S17">
+        <v>2.198817400814263E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.198817400814263E-05</v>
       </c>
     </row>
   </sheetData>
